--- a/Section04/Interpolation/TemperatureTest.xlsx
+++ b/Section04/Interpolation/TemperatureTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section04\Interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83923783-8B95-4601-8A02-50A8C052A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AA7AE-39BF-4F1E-8880-F3C4063A021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2518,7 +2518,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CENICAFE VS. IDEAM</a:t>
+              <a:t>Altitud VS. IDEAM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2997,36 +2997,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3048,7 +3018,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3069,6 +3039,208 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>27.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4027-48A7-946A-83BC7B6C56CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet3!$B$4:$B$17</c:f>
@@ -3076,97 +3248,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28.423999999999999</c:v>
+                  <c:v>28.331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.334</c:v>
+                  <c:v>28.510999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.244</c:v>
+                  <c:v>28.690999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.154</c:v>
+                  <c:v>28.870999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.064</c:v>
+                  <c:v>29.050999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.974</c:v>
+                  <c:v>29.230999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.884</c:v>
+                  <c:v>29.411000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.794</c:v>
+                  <c:v>29.591000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.704000000000001</c:v>
+                  <c:v>29.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.614000000000001</c:v>
+                  <c:v>29.951000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.524000000000001</c:v>
+                  <c:v>30.131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.434000000000001</c:v>
+                  <c:v>30.311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.344000000000001</c:v>
+                  <c:v>30.491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.253999999999998</c:v>
+                  <c:v>30.670999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$17</c:f>
+              <c:f>Sheet3!$A$4:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>27.72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.169999999999998</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.619999999999997</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.52</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.97</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.419999999999998</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.869999999999997</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.32</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.77</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.22</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.669999999999998</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.119999999999997</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.57</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3174,7 +3346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4027-48A7-946A-83BC7B6C56CD}"/>
+              <c16:uniqueId val="{00000001-4027-48A7-946A-83BC7B6C56CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3210,6 +3382,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3321,6 +3523,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -14823,11 +15056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD703A69-254D-47B4-98D4-B9F4F6144245}">
   <dimension ref="A1:AZ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW34" sqref="AW34"/>
+      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18657,8 +18890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDC918-CF30-4C77-9981-503CC58D1339}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18684,8 +18917,8 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <f>28.424 -0.0009*A4</f>
-        <v>28.423999999999999</v>
+        <f>0.0018*A4 + 28.331</f>
+        <v>28.331</v>
       </c>
       <c r="C4">
         <f>27.72-0.0055*A4</f>
@@ -18697,8 +18930,8 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B17" si="0">28.424 -0.0009*A5</f>
-        <v>28.334</v>
+        <f t="shared" ref="B5:B17" si="0">0.0018*A5 + 28.331</f>
+        <v>28.510999999999999</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C17" si="1">27.72-0.0055*A5</f>
@@ -18711,7 +18944,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>28.244</v>
+        <v>28.690999999999999</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -18724,7 +18957,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>28.154</v>
+        <v>28.870999999999999</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -18737,7 +18970,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>28.064</v>
+        <v>29.050999999999998</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -18750,7 +18983,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>27.974</v>
+        <v>29.230999999999998</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -18763,7 +18996,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>27.884</v>
+        <v>29.411000000000001</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -18776,7 +19009,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>27.794</v>
+        <v>29.591000000000001</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -18789,7 +19022,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>27.704000000000001</v>
+        <v>29.771000000000001</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -18802,7 +19035,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>27.614000000000001</v>
+        <v>29.951000000000001</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -18815,7 +19048,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>27.524000000000001</v>
+        <v>30.131</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -18828,7 +19061,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>27.434000000000001</v>
+        <v>30.311</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -18841,7 +19074,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>27.344000000000001</v>
+        <v>30.491</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -18854,7 +19087,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>27.253999999999998</v>
+        <v>30.670999999999999</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
